--- a/Storage/Traffic Generator.xlsx
+++ b/Storage/Traffic Generator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User-Agents" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -397,9 +397,6 @@
     <t>https://terusvn.com/niche-site-la-gi/</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>encode là gì</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t>117.0.200.23</t>
+  </si>
+  <si>
+    <t>Direct</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +661,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1671,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1722,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>40599</v>
@@ -1888,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>113</v>
@@ -1965,7 +1966,6 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="0">D3*3</f>
         <v>15</v>
       </c>
       <c r="F3">
@@ -1992,7 +1992,6 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F4">
@@ -2019,7 +2018,6 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F5">
@@ -2046,7 +2044,6 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F6">
@@ -2073,11 +2070,10 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>124</v>
+      <c r="F7" s="5">
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>112</v>
@@ -2091,20 +2087,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>124</v>
+      <c r="F8" s="5">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>112</v>
@@ -2118,20 +2113,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>124</v>
+      <c r="F9" s="5">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -2145,20 +2139,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>124</v>
+      <c r="F10" s="5">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>112</v>
@@ -2172,20 +2165,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F11" t="s">
-        <v>124</v>
+      <c r="F11" s="5">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>112</v>
@@ -2199,20 +2191,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F12" t="s">
-        <v>124</v>
+      <c r="F12" s="5">
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>112</v>
@@ -2226,20 +2217,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F13" t="s">
-        <v>124</v>
+      <c r="F13" s="5">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>112</v>
@@ -2253,20 +2243,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F14" t="s">
-        <v>124</v>
+      <c r="F14" s="5">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>112</v>
@@ -2280,20 +2269,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
         <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>124</v>
+      <c r="F15" s="5">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>112</v>
@@ -2307,20 +2295,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
         <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>124</v>
+      <c r="F16" s="5">
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>112</v>
@@ -2334,20 +2321,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
         <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>124</v>
+      <c r="F17" s="5">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>112</v>
@@ -2361,20 +2347,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
         <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
       </c>
       <c r="D18">
         <v>13</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F18" t="s">
-        <v>124</v>
+      <c r="F18" s="5">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>112</v>
@@ -2388,20 +2373,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
         <v>147</v>
-      </c>
-      <c r="C19" t="s">
-        <v>148</v>
       </c>
       <c r="D19">
         <v>13</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>124</v>
+      <c r="F19" s="5">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>112</v>
@@ -2415,16 +2399,15 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
         <v>149</v>
-      </c>
-      <c r="C20" t="s">
-        <v>150</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F20">
@@ -2442,16 +2425,15 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F21">
@@ -2469,16 +2451,15 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" t="s">
-        <v>154</v>
       </c>
       <c r="D22">
         <v>15</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F22">
@@ -2496,16 +2477,15 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
         <v>155</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
       </c>
       <c r="D23">
         <v>15</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F23">
@@ -2523,16 +2503,15 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
         <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F24">
@@ -2550,16 +2529,15 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
         <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
       </c>
       <c r="D25">
         <v>15</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F25">
@@ -2577,16 +2555,15 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>162</v>
       </c>
       <c r="D26">
         <v>16</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F26">
@@ -2604,16 +2581,15 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
         <v>163</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
       </c>
       <c r="D27">
         <v>16</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F27">
@@ -2631,16 +2607,15 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
         <v>165</v>
-      </c>
-      <c r="C28" t="s">
-        <v>166</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F28">
@@ -2658,16 +2633,15 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
         <v>167</v>
-      </c>
-      <c r="C29" t="s">
-        <v>168</v>
       </c>
       <c r="D29">
         <v>16</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F29">
@@ -2685,16 +2659,15 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
         <v>169</v>
-      </c>
-      <c r="C30" t="s">
-        <v>170</v>
       </c>
       <c r="D30">
         <v>17</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="F30">
@@ -2712,16 +2685,15 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
         <v>171</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
       </c>
       <c r="D31">
         <v>18</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F31">
@@ -2739,7 +2711,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2767,7 +2739,7 @@
         <v>105</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -2776,10 +2748,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,10 +2781,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +2835,13 @@
         <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
